--- a/Symphony/2021/JULY/All Details/31.07.2021/MC Bank Statement June-2021.xlsx
+++ b/Symphony/2021/JULY/All Details/31.07.2021/MC Bank Statement June-2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\Symphony\2021\JULY\All Details\31.07.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\Symphony\2021\July\All Details\31.07.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -880,7 +880,7 @@
     <t>30.07.2021</t>
   </si>
   <si>
-    <t>BackMargin+Q2</t>
+    <t>Back Margin+Q2</t>
   </si>
 </sst>
 </file>
@@ -3180,6 +3180,12 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3314,12 +3320,6 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3987,33 +3987,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="353"/>
-      <c r="B1" s="353"/>
-      <c r="C1" s="353"/>
-      <c r="D1" s="353"/>
-      <c r="E1" s="353"/>
-      <c r="F1" s="353"/>
+      <c r="A1" s="355"/>
+      <c r="B1" s="355"/>
+      <c r="C1" s="355"/>
+      <c r="D1" s="355"/>
+      <c r="E1" s="355"/>
+      <c r="F1" s="355"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="354"/>
-      <c r="B2" s="351" t="s">
+      <c r="A2" s="356"/>
+      <c r="B2" s="353" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="351"/>
-      <c r="D2" s="351"/>
-      <c r="E2" s="351"/>
+      <c r="C2" s="353"/>
+      <c r="D2" s="353"/>
+      <c r="E2" s="353"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="354"/>
-      <c r="B3" s="352" t="s">
+      <c r="A3" s="356"/>
+      <c r="B3" s="354" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="352"/>
-      <c r="D3" s="352"/>
-      <c r="E3" s="352"/>
+      <c r="C3" s="354"/>
+      <c r="D3" s="354"/>
+      <c r="E3" s="354"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="354"/>
+      <c r="A4" s="356"/>
       <c r="B4" s="34" t="s">
         <v>0</v>
       </c>
@@ -4031,7 +4031,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="354"/>
+      <c r="A5" s="356"/>
       <c r="B5" s="36" t="s">
         <v>3</v>
       </c>
@@ -4049,7 +4049,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="354"/>
+      <c r="A6" s="356"/>
       <c r="B6" s="38"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -4061,7 +4061,7 @@
       <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="354"/>
+      <c r="A7" s="356"/>
       <c r="B7" s="38" t="s">
         <v>76</v>
       </c>
@@ -4080,7 +4080,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="354"/>
+      <c r="A8" s="356"/>
       <c r="B8" s="38" t="s">
         <v>77</v>
       </c>
@@ -4099,7 +4099,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="354"/>
+      <c r="A9" s="356"/>
       <c r="B9" s="38" t="s">
         <v>80</v>
       </c>
@@ -4118,7 +4118,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="354"/>
+      <c r="A10" s="356"/>
       <c r="B10" s="38" t="s">
         <v>81</v>
       </c>
@@ -4137,7 +4137,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="354"/>
+      <c r="A11" s="356"/>
       <c r="B11" s="38" t="s">
         <v>82</v>
       </c>
@@ -4156,7 +4156,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="354"/>
+      <c r="A12" s="356"/>
       <c r="B12" s="38" t="s">
         <v>83</v>
       </c>
@@ -4175,7 +4175,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="354"/>
+      <c r="A13" s="356"/>
       <c r="B13" s="38" t="s">
         <v>84</v>
       </c>
@@ -4194,7 +4194,7 @@
       <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="354"/>
+      <c r="A14" s="356"/>
       <c r="B14" s="38" t="s">
         <v>85</v>
       </c>
@@ -4213,7 +4213,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="354"/>
+      <c r="A15" s="356"/>
       <c r="B15" s="38" t="s">
         <v>86</v>
       </c>
@@ -4232,7 +4232,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="354"/>
+      <c r="A16" s="356"/>
       <c r="B16" s="38"/>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
@@ -4245,7 +4245,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="354"/>
+      <c r="A17" s="356"/>
       <c r="B17" s="38"/>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
@@ -4258,7 +4258,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="354"/>
+      <c r="A18" s="356"/>
       <c r="B18" s="38"/>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
@@ -4271,7 +4271,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="354"/>
+      <c r="A19" s="356"/>
       <c r="B19" s="38"/>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
@@ -4284,7 +4284,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="354"/>
+      <c r="A20" s="356"/>
       <c r="B20" s="38"/>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
@@ -4297,7 +4297,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="354"/>
+      <c r="A21" s="356"/>
       <c r="B21" s="38"/>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
@@ -4310,7 +4310,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="354"/>
+      <c r="A22" s="356"/>
       <c r="B22" s="38"/>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
@@ -4323,7 +4323,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="354"/>
+      <c r="A23" s="356"/>
       <c r="B23" s="38"/>
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
@@ -4336,7 +4336,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="354"/>
+      <c r="A24" s="356"/>
       <c r="B24" s="38"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
@@ -4349,7 +4349,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="354"/>
+      <c r="A25" s="356"/>
       <c r="B25" s="38"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
@@ -4362,7 +4362,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="354"/>
+      <c r="A26" s="356"/>
       <c r="B26" s="38"/>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
@@ -4375,7 +4375,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="354"/>
+      <c r="A27" s="356"/>
       <c r="B27" s="38"/>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
@@ -4388,7 +4388,7 @@
       <c r="H27" s="33"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="354"/>
+      <c r="A28" s="356"/>
       <c r="B28" s="38"/>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
@@ -4401,7 +4401,7 @@
       <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="354"/>
+      <c r="A29" s="356"/>
       <c r="B29" s="38"/>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
@@ -4414,7 +4414,7 @@
       <c r="H29" s="33"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="354"/>
+      <c r="A30" s="356"/>
       <c r="B30" s="38"/>
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
@@ -4427,7 +4427,7 @@
       <c r="H30" s="33"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="354"/>
+      <c r="A31" s="356"/>
       <c r="B31" s="38"/>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
@@ -4440,7 +4440,7 @@
       <c r="H31" s="33"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="354"/>
+      <c r="A32" s="356"/>
       <c r="B32" s="38"/>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
@@ -4453,7 +4453,7 @@
       <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="354"/>
+      <c r="A33" s="356"/>
       <c r="B33" s="38"/>
       <c r="C33" s="37"/>
       <c r="D33" s="40"/>
@@ -4466,7 +4466,7 @@
       <c r="H33" s="33"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="354"/>
+      <c r="A34" s="356"/>
       <c r="B34" s="38"/>
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
@@ -4479,7 +4479,7 @@
       <c r="H34" s="33"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="354"/>
+      <c r="A35" s="356"/>
       <c r="B35" s="38"/>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
@@ -4492,7 +4492,7 @@
       <c r="H35" s="33"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="354"/>
+      <c r="A36" s="356"/>
       <c r="B36" s="38"/>
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
@@ -4505,7 +4505,7 @@
       <c r="H36" s="33"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="354"/>
+      <c r="A37" s="356"/>
       <c r="B37" s="38"/>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
@@ -4518,7 +4518,7 @@
       <c r="H37" s="33"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="354"/>
+      <c r="A38" s="356"/>
       <c r="B38" s="38"/>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
@@ -4531,7 +4531,7 @@
       <c r="H38" s="33"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="354"/>
+      <c r="A39" s="356"/>
       <c r="B39" s="38"/>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
@@ -4544,7 +4544,7 @@
       <c r="H39" s="33"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="354"/>
+      <c r="A40" s="356"/>
       <c r="B40" s="38"/>
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
@@ -4557,7 +4557,7 @@
       <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="354"/>
+      <c r="A41" s="356"/>
       <c r="B41" s="38"/>
       <c r="C41" s="37"/>
       <c r="D41" s="37"/>
@@ -4570,7 +4570,7 @@
       <c r="H41" s="33"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="354"/>
+      <c r="A42" s="356"/>
       <c r="B42" s="38"/>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
@@ -4583,7 +4583,7 @@
       <c r="H42" s="33"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="354"/>
+      <c r="A43" s="356"/>
       <c r="B43" s="38"/>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
@@ -4596,7 +4596,7 @@
       <c r="H43" s="33"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="354"/>
+      <c r="A44" s="356"/>
       <c r="B44" s="38"/>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
@@ -4609,7 +4609,7 @@
       <c r="H44" s="33"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="354"/>
+      <c r="A45" s="356"/>
       <c r="B45" s="38"/>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
@@ -4622,7 +4622,7 @@
       <c r="H45" s="33"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="354"/>
+      <c r="A46" s="356"/>
       <c r="B46" s="38"/>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
@@ -4635,7 +4635,7 @@
       <c r="H46" s="33"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="354"/>
+      <c r="A47" s="356"/>
       <c r="B47" s="38"/>
       <c r="C47" s="37"/>
       <c r="D47" s="37"/>
@@ -4648,7 +4648,7 @@
       <c r="H47" s="33"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="354"/>
+      <c r="A48" s="356"/>
       <c r="B48" s="38"/>
       <c r="C48" s="37"/>
       <c r="D48" s="37"/>
@@ -4661,7 +4661,7 @@
       <c r="H48" s="33"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="354"/>
+      <c r="A49" s="356"/>
       <c r="B49" s="38"/>
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
@@ -4674,7 +4674,7 @@
       <c r="H49" s="33"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="354"/>
+      <c r="A50" s="356"/>
       <c r="B50" s="38"/>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
@@ -4687,7 +4687,7 @@
       <c r="H50" s="33"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="354"/>
+      <c r="A51" s="356"/>
       <c r="B51" s="38"/>
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
@@ -4700,7 +4700,7 @@
       <c r="H51" s="33"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="354"/>
+      <c r="A52" s="356"/>
       <c r="B52" s="38"/>
       <c r="C52" s="37"/>
       <c r="D52" s="37"/>
@@ -4713,7 +4713,7 @@
       <c r="H52" s="33"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="354"/>
+      <c r="A53" s="356"/>
       <c r="B53" s="38"/>
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
@@ -4726,7 +4726,7 @@
       <c r="H53" s="33"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="354"/>
+      <c r="A54" s="356"/>
       <c r="B54" s="38"/>
       <c r="C54" s="37"/>
       <c r="D54" s="37"/>
@@ -4739,7 +4739,7 @@
       <c r="H54" s="33"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="354"/>
+      <c r="A55" s="356"/>
       <c r="B55" s="38"/>
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
@@ -4751,7 +4751,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="354"/>
+      <c r="A56" s="356"/>
       <c r="B56" s="38"/>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
@@ -4763,7 +4763,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="354"/>
+      <c r="A57" s="356"/>
       <c r="B57" s="38"/>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
@@ -4775,7 +4775,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="354"/>
+      <c r="A58" s="356"/>
       <c r="B58" s="38"/>
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
@@ -4787,7 +4787,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="354"/>
+      <c r="A59" s="356"/>
       <c r="B59" s="38"/>
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
@@ -4799,7 +4799,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="354"/>
+      <c r="A60" s="356"/>
       <c r="B60" s="38"/>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
@@ -4811,7 +4811,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="354"/>
+      <c r="A61" s="356"/>
       <c r="B61" s="38"/>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
@@ -4823,7 +4823,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="354"/>
+      <c r="A62" s="356"/>
       <c r="B62" s="38"/>
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
@@ -4835,7 +4835,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="354"/>
+      <c r="A63" s="356"/>
       <c r="B63" s="38"/>
       <c r="C63" s="37"/>
       <c r="D63" s="37"/>
@@ -4847,7 +4847,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="354"/>
+      <c r="A64" s="356"/>
       <c r="B64" s="38"/>
       <c r="C64" s="37"/>
       <c r="D64" s="37"/>
@@ -4859,7 +4859,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="354"/>
+      <c r="A65" s="356"/>
       <c r="B65" s="38"/>
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
@@ -4871,7 +4871,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="354"/>
+      <c r="A66" s="356"/>
       <c r="B66" s="38"/>
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
@@ -4883,7 +4883,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="354"/>
+      <c r="A67" s="356"/>
       <c r="B67" s="38"/>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
@@ -4895,7 +4895,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="354"/>
+      <c r="A68" s="356"/>
       <c r="B68" s="38"/>
       <c r="C68" s="37"/>
       <c r="D68" s="37"/>
@@ -4907,7 +4907,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="354"/>
+      <c r="A69" s="356"/>
       <c r="B69" s="38"/>
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
@@ -4919,7 +4919,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="354"/>
+      <c r="A70" s="356"/>
       <c r="B70" s="38"/>
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
@@ -4931,7 +4931,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="354"/>
+      <c r="A71" s="356"/>
       <c r="B71" s="38"/>
       <c r="C71" s="37"/>
       <c r="D71" s="37"/>
@@ -4943,7 +4943,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="354"/>
+      <c r="A72" s="356"/>
       <c r="B72" s="38"/>
       <c r="C72" s="37"/>
       <c r="D72" s="37"/>
@@ -4955,7 +4955,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="354"/>
+      <c r="A73" s="356"/>
       <c r="B73" s="38"/>
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
@@ -4967,7 +4967,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="354"/>
+      <c r="A74" s="356"/>
       <c r="B74" s="38"/>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
@@ -4979,7 +4979,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="354"/>
+      <c r="A75" s="356"/>
       <c r="B75" s="38"/>
       <c r="C75" s="37"/>
       <c r="D75" s="37"/>
@@ -4991,7 +4991,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="354"/>
+      <c r="A76" s="356"/>
       <c r="B76" s="38"/>
       <c r="C76" s="37"/>
       <c r="D76" s="37"/>
@@ -5003,7 +5003,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="354"/>
+      <c r="A77" s="356"/>
       <c r="B77" s="38"/>
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
@@ -5015,7 +5015,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="354"/>
+      <c r="A78" s="356"/>
       <c r="B78" s="38"/>
       <c r="C78" s="37"/>
       <c r="D78" s="37"/>
@@ -5027,7 +5027,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="354"/>
+      <c r="A79" s="356"/>
       <c r="B79" s="38"/>
       <c r="C79" s="37"/>
       <c r="D79" s="37"/>
@@ -5039,7 +5039,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="354"/>
+      <c r="A80" s="356"/>
       <c r="B80" s="38"/>
       <c r="C80" s="37"/>
       <c r="D80" s="37"/>
@@ -5051,7 +5051,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="354"/>
+      <c r="A81" s="356"/>
       <c r="B81" s="38"/>
       <c r="C81" s="37"/>
       <c r="D81" s="37"/>
@@ -5063,7 +5063,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="354"/>
+      <c r="A82" s="356"/>
       <c r="B82" s="38"/>
       <c r="C82" s="37"/>
       <c r="D82" s="37"/>
@@ -5075,7 +5075,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="354"/>
+      <c r="A83" s="356"/>
       <c r="B83" s="43"/>
       <c r="C83" s="39">
         <f>SUM(C5:C72)</f>
@@ -5114,8 +5114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5132,33 +5132,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="353"/>
-      <c r="B1" s="353"/>
-      <c r="C1" s="353"/>
-      <c r="D1" s="353"/>
-      <c r="E1" s="353"/>
-      <c r="F1" s="353"/>
+      <c r="A1" s="355"/>
+      <c r="B1" s="355"/>
+      <c r="C1" s="355"/>
+      <c r="D1" s="355"/>
+      <c r="E1" s="355"/>
+      <c r="F1" s="355"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="354"/>
-      <c r="B2" s="351" t="s">
+      <c r="A2" s="356"/>
+      <c r="B2" s="353" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="351"/>
-      <c r="D2" s="351"/>
-      <c r="E2" s="351"/>
+      <c r="C2" s="353"/>
+      <c r="D2" s="353"/>
+      <c r="E2" s="353"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="354"/>
-      <c r="B3" s="352" t="s">
+      <c r="A3" s="356"/>
+      <c r="B3" s="354" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="352"/>
-      <c r="D3" s="352"/>
-      <c r="E3" s="352"/>
+      <c r="C3" s="354"/>
+      <c r="D3" s="354"/>
+      <c r="E3" s="354"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="354"/>
+      <c r="A4" s="356"/>
       <c r="B4" s="34" t="s">
         <v>0</v>
       </c>
@@ -5176,7 +5176,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="354"/>
+      <c r="A5" s="356"/>
       <c r="B5" s="36" t="s">
         <v>3</v>
       </c>
@@ -5194,7 +5194,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="354"/>
+      <c r="A6" s="356"/>
       <c r="B6" s="38"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -5206,7 +5206,7 @@
       <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="354"/>
+      <c r="A7" s="356"/>
       <c r="B7" s="38" t="s">
         <v>190</v>
       </c>
@@ -5225,7 +5225,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="354"/>
+      <c r="A8" s="356"/>
       <c r="B8" s="38" t="s">
         <v>193</v>
       </c>
@@ -5244,7 +5244,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="354"/>
+      <c r="A9" s="356"/>
       <c r="B9" s="38" t="s">
         <v>195</v>
       </c>
@@ -5263,7 +5263,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="354"/>
+      <c r="A10" s="356"/>
       <c r="B10" s="38" t="s">
         <v>196</v>
       </c>
@@ -5282,7 +5282,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="354"/>
+      <c r="A11" s="356"/>
       <c r="B11" s="38" t="s">
         <v>197</v>
       </c>
@@ -5301,7 +5301,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="354"/>
+      <c r="A12" s="356"/>
       <c r="B12" s="38" t="s">
         <v>198</v>
       </c>
@@ -5320,7 +5320,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="354"/>
+      <c r="A13" s="356"/>
       <c r="B13" s="38" t="s">
         <v>198</v>
       </c>
@@ -5339,7 +5339,7 @@
       <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="354"/>
+      <c r="A14" s="356"/>
       <c r="B14" s="38" t="s">
         <v>199</v>
       </c>
@@ -5358,7 +5358,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="354"/>
+      <c r="A15" s="356"/>
       <c r="B15" s="38" t="s">
         <v>200</v>
       </c>
@@ -5377,7 +5377,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="354"/>
+      <c r="A16" s="356"/>
       <c r="B16" s="38" t="s">
         <v>201</v>
       </c>
@@ -5396,7 +5396,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="354"/>
+      <c r="A17" s="356"/>
       <c r="B17" s="38" t="s">
         <v>202</v>
       </c>
@@ -5415,7 +5415,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="354"/>
+      <c r="A18" s="356"/>
       <c r="B18" s="38" t="s">
         <v>203</v>
       </c>
@@ -5434,7 +5434,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="354"/>
+      <c r="A19" s="356"/>
       <c r="B19" s="38" t="s">
         <v>205</v>
       </c>
@@ -5453,7 +5453,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="354"/>
+      <c r="A20" s="356"/>
       <c r="B20" s="38" t="s">
         <v>207</v>
       </c>
@@ -5472,7 +5472,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="354"/>
+      <c r="A21" s="356"/>
       <c r="B21" s="38" t="s">
         <v>208</v>
       </c>
@@ -5491,7 +5491,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="354"/>
+      <c r="A22" s="356"/>
       <c r="B22" s="38" t="s">
         <v>209</v>
       </c>
@@ -5510,7 +5510,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="354"/>
+      <c r="A23" s="356"/>
       <c r="B23" s="38" t="s">
         <v>210</v>
       </c>
@@ -5529,7 +5529,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="354"/>
+      <c r="A24" s="356"/>
       <c r="B24" s="38" t="s">
         <v>211</v>
       </c>
@@ -5548,7 +5548,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="354"/>
+      <c r="A25" s="356"/>
       <c r="B25" s="38" t="s">
         <v>213</v>
       </c>
@@ -5567,7 +5567,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="354"/>
+      <c r="A26" s="356"/>
       <c r="B26" s="38" t="s">
         <v>214</v>
       </c>
@@ -5586,7 +5586,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="354"/>
+      <c r="A27" s="356"/>
       <c r="B27" s="38" t="s">
         <v>215</v>
       </c>
@@ -5605,7 +5605,7 @@
       <c r="H27" s="33"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="354"/>
+      <c r="A28" s="356"/>
       <c r="B28" s="38" t="s">
         <v>217</v>
       </c>
@@ -5624,7 +5624,7 @@
       <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="354"/>
+      <c r="A29" s="356"/>
       <c r="B29" s="38" t="s">
         <v>218</v>
       </c>
@@ -5643,7 +5643,7 @@
       <c r="H29" s="33"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="354"/>
+      <c r="A30" s="356"/>
       <c r="B30" s="38" t="s">
         <v>219</v>
       </c>
@@ -5662,7 +5662,7 @@
       <c r="H30" s="33"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="354"/>
+      <c r="A31" s="356"/>
       <c r="B31" s="38" t="s">
         <v>222</v>
       </c>
@@ -5681,7 +5681,7 @@
       <c r="H31" s="33"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="354"/>
+      <c r="A32" s="356"/>
       <c r="B32" s="38" t="s">
         <v>222</v>
       </c>
@@ -5700,7 +5700,7 @@
       <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="354"/>
+      <c r="A33" s="356"/>
       <c r="B33" s="38" t="s">
         <v>225</v>
       </c>
@@ -5719,7 +5719,7 @@
       <c r="H33" s="33"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="354"/>
+      <c r="A34" s="356"/>
       <c r="B34" s="38"/>
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
@@ -5732,7 +5732,7 @@
       <c r="H34" s="33"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="354"/>
+      <c r="A35" s="356"/>
       <c r="B35" s="38"/>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
@@ -5745,7 +5745,7 @@
       <c r="H35" s="33"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="354"/>
+      <c r="A36" s="356"/>
       <c r="B36" s="38"/>
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
@@ -5758,7 +5758,7 @@
       <c r="H36" s="33"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="354"/>
+      <c r="A37" s="356"/>
       <c r="B37" s="38"/>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
@@ -5771,7 +5771,7 @@
       <c r="H37" s="33"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="354"/>
+      <c r="A38" s="356"/>
       <c r="B38" s="38"/>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
@@ -5784,7 +5784,7 @@
       <c r="H38" s="33"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="354"/>
+      <c r="A39" s="356"/>
       <c r="B39" s="38"/>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
@@ -5797,7 +5797,7 @@
       <c r="H39" s="33"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="354"/>
+      <c r="A40" s="356"/>
       <c r="B40" s="38"/>
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
@@ -5810,7 +5810,7 @@
       <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="354"/>
+      <c r="A41" s="356"/>
       <c r="B41" s="38"/>
       <c r="C41" s="37"/>
       <c r="D41" s="37"/>
@@ -5823,7 +5823,7 @@
       <c r="H41" s="33"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="354"/>
+      <c r="A42" s="356"/>
       <c r="B42" s="38"/>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
@@ -5836,7 +5836,7 @@
       <c r="H42" s="33"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="354"/>
+      <c r="A43" s="356"/>
       <c r="B43" s="38"/>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
@@ -5849,7 +5849,7 @@
       <c r="H43" s="33"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="354"/>
+      <c r="A44" s="356"/>
       <c r="B44" s="38"/>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
@@ -5862,7 +5862,7 @@
       <c r="H44" s="33"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="354"/>
+      <c r="A45" s="356"/>
       <c r="B45" s="38"/>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
@@ -5875,7 +5875,7 @@
       <c r="H45" s="33"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="354"/>
+      <c r="A46" s="356"/>
       <c r="B46" s="38"/>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
@@ -5888,7 +5888,7 @@
       <c r="H46" s="33"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="354"/>
+      <c r="A47" s="356"/>
       <c r="B47" s="38"/>
       <c r="C47" s="37"/>
       <c r="D47" s="37"/>
@@ -5901,7 +5901,7 @@
       <c r="H47" s="33"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="354"/>
+      <c r="A48" s="356"/>
       <c r="B48" s="38"/>
       <c r="C48" s="37"/>
       <c r="D48" s="37"/>
@@ -5914,7 +5914,7 @@
       <c r="H48" s="33"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="354"/>
+      <c r="A49" s="356"/>
       <c r="B49" s="38"/>
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
@@ -5927,7 +5927,7 @@
       <c r="H49" s="33"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="354"/>
+      <c r="A50" s="356"/>
       <c r="B50" s="38"/>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
@@ -5940,7 +5940,7 @@
       <c r="H50" s="33"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="354"/>
+      <c r="A51" s="356"/>
       <c r="B51" s="38"/>
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
@@ -5953,7 +5953,7 @@
       <c r="H51" s="33"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="354"/>
+      <c r="A52" s="356"/>
       <c r="B52" s="38"/>
       <c r="C52" s="37"/>
       <c r="D52" s="37"/>
@@ -5966,7 +5966,7 @@
       <c r="H52" s="33"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="354"/>
+      <c r="A53" s="356"/>
       <c r="B53" s="38"/>
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
@@ -5979,7 +5979,7 @@
       <c r="H53" s="33"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="354"/>
+      <c r="A54" s="356"/>
       <c r="B54" s="38"/>
       <c r="C54" s="37"/>
       <c r="D54" s="37"/>
@@ -5992,7 +5992,7 @@
       <c r="H54" s="33"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="354"/>
+      <c r="A55" s="356"/>
       <c r="B55" s="38"/>
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
@@ -6004,7 +6004,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="354"/>
+      <c r="A56" s="356"/>
       <c r="B56" s="38"/>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
@@ -6016,7 +6016,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="354"/>
+      <c r="A57" s="356"/>
       <c r="B57" s="38"/>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
@@ -6028,7 +6028,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="354"/>
+      <c r="A58" s="356"/>
       <c r="B58" s="38"/>
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
@@ -6040,7 +6040,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="354"/>
+      <c r="A59" s="356"/>
       <c r="B59" s="38"/>
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
@@ -6052,7 +6052,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="354"/>
+      <c r="A60" s="356"/>
       <c r="B60" s="38"/>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
@@ -6064,7 +6064,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="354"/>
+      <c r="A61" s="356"/>
       <c r="B61" s="38"/>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
@@ -6076,7 +6076,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="354"/>
+      <c r="A62" s="356"/>
       <c r="B62" s="38"/>
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
@@ -6088,7 +6088,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="354"/>
+      <c r="A63" s="356"/>
       <c r="B63" s="38"/>
       <c r="C63" s="37"/>
       <c r="D63" s="37"/>
@@ -6100,7 +6100,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="354"/>
+      <c r="A64" s="356"/>
       <c r="B64" s="38"/>
       <c r="C64" s="37"/>
       <c r="D64" s="37"/>
@@ -6112,7 +6112,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="354"/>
+      <c r="A65" s="356"/>
       <c r="B65" s="38"/>
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
@@ -6124,7 +6124,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="354"/>
+      <c r="A66" s="356"/>
       <c r="B66" s="38"/>
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
@@ -6136,7 +6136,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="354"/>
+      <c r="A67" s="356"/>
       <c r="B67" s="38"/>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
@@ -6148,7 +6148,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="354"/>
+      <c r="A68" s="356"/>
       <c r="B68" s="38"/>
       <c r="C68" s="37"/>
       <c r="D68" s="37"/>
@@ -6160,7 +6160,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="354"/>
+      <c r="A69" s="356"/>
       <c r="B69" s="38"/>
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
@@ -6172,7 +6172,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="354"/>
+      <c r="A70" s="356"/>
       <c r="B70" s="38"/>
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
@@ -6184,7 +6184,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="354"/>
+      <c r="A71" s="356"/>
       <c r="B71" s="38"/>
       <c r="C71" s="37"/>
       <c r="D71" s="37"/>
@@ -6196,7 +6196,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="354"/>
+      <c r="A72" s="356"/>
       <c r="B72" s="38"/>
       <c r="C72" s="37"/>
       <c r="D72" s="37"/>
@@ -6208,7 +6208,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="354"/>
+      <c r="A73" s="356"/>
       <c r="B73" s="38"/>
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
@@ -6220,7 +6220,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="354"/>
+      <c r="A74" s="356"/>
       <c r="B74" s="38"/>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
@@ -6232,7 +6232,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="354"/>
+      <c r="A75" s="356"/>
       <c r="B75" s="38"/>
       <c r="C75" s="37"/>
       <c r="D75" s="37"/>
@@ -6244,7 +6244,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="354"/>
+      <c r="A76" s="356"/>
       <c r="B76" s="38"/>
       <c r="C76" s="37"/>
       <c r="D76" s="37"/>
@@ -6256,7 +6256,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="354"/>
+      <c r="A77" s="356"/>
       <c r="B77" s="38"/>
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
@@ -6268,7 +6268,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="354"/>
+      <c r="A78" s="356"/>
       <c r="B78" s="38"/>
       <c r="C78" s="37"/>
       <c r="D78" s="37"/>
@@ -6280,7 +6280,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="354"/>
+      <c r="A79" s="356"/>
       <c r="B79" s="38"/>
       <c r="C79" s="37"/>
       <c r="D79" s="37"/>
@@ -6292,7 +6292,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="354"/>
+      <c r="A80" s="356"/>
       <c r="B80" s="38"/>
       <c r="C80" s="37"/>
       <c r="D80" s="37"/>
@@ -6304,7 +6304,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="354"/>
+      <c r="A81" s="356"/>
       <c r="B81" s="38"/>
       <c r="C81" s="37"/>
       <c r="D81" s="37"/>
@@ -6316,7 +6316,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="354"/>
+      <c r="A82" s="356"/>
       <c r="B82" s="38"/>
       <c r="C82" s="37"/>
       <c r="D82" s="37"/>
@@ -6328,7 +6328,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="354"/>
+      <c r="A83" s="356"/>
       <c r="B83" s="43"/>
       <c r="C83" s="39">
         <f>SUM(C5:C72)</f>
@@ -6367,8 +6367,8 @@
   <dimension ref="A1:X320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6381,67 +6381,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="359" t="s">
+      <c r="A1" s="361" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="359"/>
-      <c r="C1" s="359"/>
-      <c r="D1" s="359"/>
-      <c r="E1" s="359"/>
-      <c r="F1" s="359"/>
-      <c r="G1" s="359"/>
-      <c r="H1" s="359"/>
-      <c r="I1" s="359"/>
-      <c r="J1" s="359"/>
-      <c r="K1" s="359"/>
-      <c r="L1" s="359"/>
-      <c r="M1" s="359"/>
-      <c r="N1" s="359"/>
-      <c r="O1" s="359"/>
-      <c r="P1" s="359"/>
-      <c r="Q1" s="359"/>
+      <c r="B1" s="361"/>
+      <c r="C1" s="361"/>
+      <c r="D1" s="361"/>
+      <c r="E1" s="361"/>
+      <c r="F1" s="361"/>
+      <c r="G1" s="361"/>
+      <c r="H1" s="361"/>
+      <c r="I1" s="361"/>
+      <c r="J1" s="361"/>
+      <c r="K1" s="361"/>
+      <c r="L1" s="361"/>
+      <c r="M1" s="361"/>
+      <c r="N1" s="361"/>
+      <c r="O1" s="361"/>
+      <c r="P1" s="361"/>
+      <c r="Q1" s="361"/>
     </row>
     <row r="2" spans="1:24" s="110" customFormat="1" ht="18">
-      <c r="A2" s="360" t="s">
+      <c r="A2" s="362" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="360"/>
-      <c r="C2" s="360"/>
-      <c r="D2" s="360"/>
-      <c r="E2" s="360"/>
-      <c r="F2" s="360"/>
-      <c r="G2" s="360"/>
-      <c r="H2" s="360"/>
-      <c r="I2" s="360"/>
-      <c r="J2" s="360"/>
-      <c r="K2" s="360"/>
-      <c r="L2" s="360"/>
-      <c r="M2" s="360"/>
-      <c r="N2" s="360"/>
-      <c r="O2" s="360"/>
-      <c r="P2" s="360"/>
-      <c r="Q2" s="360"/>
+      <c r="B2" s="362"/>
+      <c r="C2" s="362"/>
+      <c r="D2" s="362"/>
+      <c r="E2" s="362"/>
+      <c r="F2" s="362"/>
+      <c r="G2" s="362"/>
+      <c r="H2" s="362"/>
+      <c r="I2" s="362"/>
+      <c r="J2" s="362"/>
+      <c r="K2" s="362"/>
+      <c r="L2" s="362"/>
+      <c r="M2" s="362"/>
+      <c r="N2" s="362"/>
+      <c r="O2" s="362"/>
+      <c r="P2" s="362"/>
+      <c r="Q2" s="362"/>
     </row>
     <row r="3" spans="1:24" s="111" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="361" t="s">
+      <c r="A3" s="363" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="362"/>
-      <c r="C3" s="362"/>
-      <c r="D3" s="362"/>
-      <c r="E3" s="362"/>
-      <c r="F3" s="362"/>
-      <c r="G3" s="362"/>
-      <c r="H3" s="362"/>
-      <c r="I3" s="362"/>
-      <c r="J3" s="362"/>
-      <c r="K3" s="362"/>
-      <c r="L3" s="362"/>
-      <c r="M3" s="362"/>
-      <c r="N3" s="362"/>
-      <c r="O3" s="362"/>
-      <c r="P3" s="362"/>
-      <c r="Q3" s="363"/>
+      <c r="B3" s="364"/>
+      <c r="C3" s="364"/>
+      <c r="D3" s="364"/>
+      <c r="E3" s="364"/>
+      <c r="F3" s="364"/>
+      <c r="G3" s="364"/>
+      <c r="H3" s="364"/>
+      <c r="I3" s="364"/>
+      <c r="J3" s="364"/>
+      <c r="K3" s="364"/>
+      <c r="L3" s="364"/>
+      <c r="M3" s="364"/>
+      <c r="N3" s="364"/>
+      <c r="O3" s="364"/>
+      <c r="P3" s="364"/>
+      <c r="Q3" s="365"/>
       <c r="S3" s="93"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6450,52 +6450,52 @@
       <c r="X3" s="28"/>
     </row>
     <row r="4" spans="1:24" s="112" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="364" t="s">
+      <c r="A4" s="366" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="366" t="s">
+      <c r="B4" s="368" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="355" t="s">
+      <c r="C4" s="357" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="355" t="s">
+      <c r="D4" s="357" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="355" t="s">
+      <c r="E4" s="357" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="355" t="s">
+      <c r="F4" s="357" t="s">
         <v>194</v>
       </c>
-      <c r="G4" s="355" t="s">
+      <c r="G4" s="357" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="355" t="s">
+      <c r="H4" s="357" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="355" t="s">
+      <c r="I4" s="357" t="s">
         <v>212</v>
       </c>
-      <c r="J4" s="355" t="s">
+      <c r="J4" s="357" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="355" t="s">
+      <c r="K4" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="355" t="s">
+      <c r="L4" s="357" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="355" t="s">
+      <c r="M4" s="357" t="s">
         <v>58</v>
       </c>
-      <c r="N4" s="355" t="s">
+      <c r="N4" s="357" t="s">
         <v>59</v>
       </c>
-      <c r="O4" s="357" t="s">
+      <c r="O4" s="359" t="s">
         <v>60</v>
       </c>
-      <c r="P4" s="368" t="s">
+      <c r="P4" s="370" t="s">
         <v>92</v>
       </c>
       <c r="Q4" s="183" t="s">
@@ -6508,22 +6508,22 @@
       <c r="W4" s="114"/>
     </row>
     <row r="5" spans="1:24" s="112" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="365"/>
-      <c r="B5" s="367"/>
-      <c r="C5" s="356"/>
-      <c r="D5" s="356"/>
-      <c r="E5" s="356"/>
-      <c r="F5" s="356"/>
-      <c r="G5" s="356"/>
-      <c r="H5" s="356"/>
-      <c r="I5" s="356"/>
-      <c r="J5" s="356"/>
-      <c r="K5" s="356"/>
-      <c r="L5" s="356"/>
-      <c r="M5" s="356"/>
-      <c r="N5" s="356"/>
-      <c r="O5" s="358"/>
-      <c r="P5" s="369"/>
+      <c r="A5" s="367"/>
+      <c r="B5" s="369"/>
+      <c r="C5" s="358"/>
+      <c r="D5" s="358"/>
+      <c r="E5" s="358"/>
+      <c r="F5" s="358"/>
+      <c r="G5" s="358"/>
+      <c r="H5" s="358"/>
+      <c r="I5" s="358"/>
+      <c r="J5" s="358"/>
+      <c r="K5" s="358"/>
+      <c r="L5" s="358"/>
+      <c r="M5" s="358"/>
+      <c r="N5" s="358"/>
+      <c r="O5" s="360"/>
+      <c r="P5" s="371"/>
       <c r="Q5" s="184" t="s">
         <v>61</v>
       </c>
@@ -9700,6 +9700,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9716,9 +9719,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9732,8 +9732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A112" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9759,14 +9759,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="374" t="s">
+      <c r="A1" s="376" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="375"/>
-      <c r="C1" s="375"/>
-      <c r="D1" s="375"/>
-      <c r="E1" s="375"/>
-      <c r="F1" s="376"/>
+      <c r="B1" s="377"/>
+      <c r="C1" s="377"/>
+      <c r="D1" s="377"/>
+      <c r="E1" s="377"/>
+      <c r="F1" s="378"/>
       <c r="G1" s="105"/>
       <c r="H1" s="105"/>
       <c r="I1" s="201"/>
@@ -9860,14 +9860,14 @@
       <c r="CS1" s="196"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="377" t="s">
+      <c r="A2" s="379" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="378"/>
-      <c r="C2" s="378"/>
-      <c r="D2" s="378"/>
-      <c r="E2" s="378"/>
-      <c r="F2" s="379"/>
+      <c r="B2" s="380"/>
+      <c r="C2" s="380"/>
+      <c r="D2" s="380"/>
+      <c r="E2" s="380"/>
+      <c r="F2" s="381"/>
       <c r="G2" s="105"/>
       <c r="H2" s="105"/>
       <c r="I2" s="201"/>
@@ -9961,14 +9961,14 @@
       <c r="CS2" s="196"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="380" t="s">
+      <c r="A3" s="382" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="381"/>
-      <c r="C3" s="381"/>
-      <c r="D3" s="381"/>
-      <c r="E3" s="381"/>
-      <c r="F3" s="382"/>
+      <c r="B3" s="383"/>
+      <c r="C3" s="383"/>
+      <c r="D3" s="383"/>
+      <c r="E3" s="383"/>
+      <c r="F3" s="384"/>
       <c r="G3" s="105"/>
       <c r="H3" s="105"/>
       <c r="I3" s="201"/>
@@ -13475,12 +13475,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="191"/>
-      <c r="B35" s="372" t="s">
+      <c r="B35" s="374" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="372"/>
-      <c r="D35" s="372"/>
-      <c r="E35" s="372"/>
+      <c r="C35" s="374"/>
+      <c r="D35" s="374"/>
+      <c r="E35" s="374"/>
       <c r="F35" s="192"/>
       <c r="G35" s="197"/>
       <c r="H35" s="197"/>
@@ -14311,10 +14311,10 @@
       <c r="D43" s="277"/>
       <c r="E43" s="237"/>
       <c r="F43" s="192"/>
-      <c r="G43" s="373"/>
-      <c r="H43" s="373"/>
-      <c r="I43" s="373"/>
-      <c r="J43" s="373"/>
+      <c r="G43" s="375"/>
+      <c r="H43" s="375"/>
+      <c r="I43" s="375"/>
+      <c r="J43" s="375"/>
       <c r="K43" s="105"/>
       <c r="L43" s="201"/>
       <c r="M43" s="105"/>
@@ -22796,11 +22796,11 @@
       <c r="CS118" s="196"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="370" t="s">
+      <c r="A119" s="372" t="s">
         <v>46</v>
       </c>
-      <c r="B119" s="371"/>
-      <c r="C119" s="383"/>
+      <c r="B119" s="373"/>
+      <c r="C119" s="385"/>
       <c r="D119" s="283">
         <f>SUM(D37:D118)</f>
         <v>2055014</v>
@@ -23003,11 +23003,11 @@
       <c r="CS120" s="196"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="370" t="s">
+      <c r="A121" s="372" t="s">
         <v>47</v>
       </c>
-      <c r="B121" s="371"/>
-      <c r="C121" s="371"/>
+      <c r="B121" s="373"/>
+      <c r="C121" s="373"/>
       <c r="D121" s="283">
         <f>D119+M121</f>
         <v>2055014</v>
@@ -33028,7 +33028,7 @@
   <dimension ref="A1:AC223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33046,35 +33046,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="384" t="s">
+      <c r="A1" s="386" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="385"/>
-      <c r="C1" s="385"/>
-      <c r="D1" s="385"/>
-      <c r="E1" s="386"/>
+      <c r="B1" s="387"/>
+      <c r="C1" s="387"/>
+      <c r="D1" s="387"/>
+      <c r="E1" s="388"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="21.75">
-      <c r="A2" s="393" t="s">
+      <c r="A2" s="395" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="394"/>
-      <c r="C2" s="394"/>
-      <c r="D2" s="394"/>
-      <c r="E2" s="395"/>
+      <c r="B2" s="396"/>
+      <c r="C2" s="396"/>
+      <c r="D2" s="396"/>
+      <c r="E2" s="397"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="23.25">
-      <c r="A3" s="387" t="s">
+      <c r="A3" s="389" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="388"/>
-      <c r="C3" s="388"/>
-      <c r="D3" s="388"/>
-      <c r="E3" s="389"/>
+      <c r="B3" s="390"/>
+      <c r="C3" s="390"/>
+      <c r="D3" s="390"/>
+      <c r="E3" s="391"/>
       <c r="F3" s="5"/>
       <c r="G3" s="11"/>
       <c r="H3" s="8"/>
@@ -33332,7 +33332,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="348">
-        <f>B6-B8-B9+B7</f>
+        <f>B6+B7-B8-B9</f>
         <v>319886.28142857127</v>
       </c>
       <c r="C10" s="65"/>
@@ -33379,8 +33379,8 @@
       <c r="F11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="396"/>
-      <c r="H11" s="397"/>
+      <c r="G11" s="351"/>
+      <c r="H11" s="352"/>
       <c r="I11" s="26" t="s">
         <v>14</v>
       </c>
@@ -33557,13 +33557,13 @@
       <c r="AC15" s="8"/>
     </row>
     <row r="16" spans="1:29" ht="22.5">
-      <c r="A16" s="390" t="s">
+      <c r="A16" s="392" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="391"/>
-      <c r="C16" s="391"/>
-      <c r="D16" s="391"/>
-      <c r="E16" s="392"/>
+      <c r="B16" s="393"/>
+      <c r="C16" s="393"/>
+      <c r="D16" s="393"/>
+      <c r="E16" s="394"/>
       <c r="F16" s="5"/>
       <c r="G16" s="9"/>
       <c r="H16" s="27"/>

--- a/Symphony/2021/JULY/All Details/31.07.2021/MC Bank Statement June-2021.xlsx
+++ b/Symphony/2021/JULY/All Details/31.07.2021/MC Bank Statement June-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -5114,8 +5114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9700,11 +9700,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9719,6 +9714,11 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -33027,8 +33027,8 @@
   </sheetPr>
   <dimension ref="A1:AC223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -38778,7 +38778,7 @@
       </c>
       <c r="D1" s="329">
         <f ca="1">TODAY()</f>
-        <v>44408</v>
+        <v>44417</v>
       </c>
     </row>
     <row r="2" spans="1:7">
